--- a/backend/AdminUserViewSpecific.xlsx
+++ b/backend/AdminUserViewSpecific.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/AdminUserViewSpecific.xlsx
+++ b/backend/AdminUserViewSpecific.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/backend/AdminUserViewSpecific.xlsx
+++ b/backend/AdminUserViewSpecific.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1034"/>
+  <dimension ref="A1:S1024"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78499,668 +78499,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1025" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1025" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1025" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1025" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1025" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1025" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1025" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1025" t="inlineStr">
-        <is>
-          <t>Training_24</t>
-        </is>
-      </c>
-      <c r="J1025" t="inlineStr">
-        <is>
-          <t>Cybersecurity Essentials</t>
-        </is>
-      </c>
-      <c r="K1025" t="inlineStr">
-        <is>
-          <t>Emp_104</t>
-        </is>
-      </c>
-      <c r="L1025" t="inlineStr">
-        <is>
-          <t>James</t>
-        </is>
-      </c>
-      <c r="M1025" t="n">
-        <v>10</v>
-      </c>
-      <c r="N1025" t="inlineStr">
-        <is>
-          <t>in_progress</t>
-        </is>
-      </c>
-      <c r="O1025" t="n">
-        <v>92</v>
-      </c>
-      <c r="P1025" t="inlineStr"/>
-      <c r="Q1025" t="inlineStr"/>
-      <c r="R1025" t="inlineStr"/>
-      <c r="S1025" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1026" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1026" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1026" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1026" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1026" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1026" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1026" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1026" t="inlineStr">
-        <is>
-          <t>Training_24</t>
-        </is>
-      </c>
-      <c r="J1026" t="inlineStr">
-        <is>
-          <t>Cybersecurity Essentials</t>
-        </is>
-      </c>
-      <c r="K1026" t="inlineStr">
-        <is>
-          <t>Emp_104</t>
-        </is>
-      </c>
-      <c r="L1026" t="inlineStr">
-        <is>
-          <t>Tammy</t>
-        </is>
-      </c>
-      <c r="M1026" t="n">
-        <v>10</v>
-      </c>
-      <c r="N1026" t="inlineStr">
-        <is>
-          <t>in_progress</t>
-        </is>
-      </c>
-      <c r="O1026" t="n">
-        <v>92</v>
-      </c>
-      <c r="P1026" t="inlineStr"/>
-      <c r="Q1026" t="inlineStr"/>
-      <c r="R1026" t="inlineStr"/>
-      <c r="S1026" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1027" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1027" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1027" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1027" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1027" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1027" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1027" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1027" t="inlineStr">
-        <is>
-          <t>Training_42</t>
-        </is>
-      </c>
-      <c r="J1027" t="inlineStr">
-        <is>
-          <t>Frontend Development with React</t>
-        </is>
-      </c>
-      <c r="K1027" t="inlineStr">
-        <is>
-          <t>Emp_158</t>
-        </is>
-      </c>
-      <c r="L1027" t="inlineStr"/>
-      <c r="M1027" t="n">
-        <v>16</v>
-      </c>
-      <c r="N1027" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-      <c r="O1027" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1027" t="inlineStr"/>
-      <c r="Q1027" t="inlineStr"/>
-      <c r="R1027" t="inlineStr"/>
-      <c r="S1027" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1028">
-      <c r="A1028" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1028" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1028" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1028" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1028" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1028" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1028" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1028" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1028" t="inlineStr">
-        <is>
-          <t>Training_44</t>
-        </is>
-      </c>
-      <c r="J1028" t="inlineStr">
-        <is>
-          <t>Web Development Fundamentals</t>
-        </is>
-      </c>
-      <c r="K1028" t="inlineStr">
-        <is>
-          <t>Emp_8</t>
-        </is>
-      </c>
-      <c r="L1028" t="inlineStr"/>
-      <c r="M1028" t="n">
-        <v>18</v>
-      </c>
-      <c r="N1028" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O1028" t="n">
-        <v>100</v>
-      </c>
-      <c r="P1028" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q1028" t="n">
-        <v>37</v>
-      </c>
-      <c r="R1028" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="S1028" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1029" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1029" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1029" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1029" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1029" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1029" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1029" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1029" t="inlineStr">
-        <is>
-          <t>Training_5</t>
-        </is>
-      </c>
-      <c r="J1029" t="inlineStr">
-        <is>
-          <t>Frontend Development with React</t>
-        </is>
-      </c>
-      <c r="K1029" t="inlineStr">
-        <is>
-          <t>Emp_137</t>
-        </is>
-      </c>
-      <c r="L1029" t="inlineStr"/>
-      <c r="M1029" t="n">
-        <v>6</v>
-      </c>
-      <c r="N1029" t="inlineStr">
-        <is>
-          <t>completed</t>
-        </is>
-      </c>
-      <c r="O1029" t="n">
-        <v>100</v>
-      </c>
-      <c r="P1029" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q1029" t="n">
-        <v>10</v>
-      </c>
-      <c r="R1029" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
-      <c r="S1029" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1030" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1030" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1030" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1030" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1030" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1030" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1030" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1030" t="inlineStr">
-        <is>
-          <t>Training_7</t>
-        </is>
-      </c>
-      <c r="J1030" t="inlineStr">
-        <is>
-          <t>Cloud Computing Fundamentals</t>
-        </is>
-      </c>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>Emp_3</t>
-        </is>
-      </c>
-      <c r="L1030" t="inlineStr">
-        <is>
-          <t>Rebecca</t>
-        </is>
-      </c>
-      <c r="M1030" t="n">
-        <v>27</v>
-      </c>
-      <c r="N1030" t="inlineStr">
-        <is>
-          <t>in_progress</t>
-        </is>
-      </c>
-      <c r="O1030" t="n">
-        <v>5</v>
-      </c>
-      <c r="P1030" t="inlineStr"/>
-      <c r="Q1030" t="inlineStr"/>
-      <c r="R1030" t="inlineStr"/>
-      <c r="S1030" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>Emp_199</t>
-        </is>
-      </c>
-      <c r="B1031" t="inlineStr">
-        <is>
-          <t>William Golden</t>
-        </is>
-      </c>
-      <c r="C1031" t="inlineStr">
-        <is>
-          <t>esantiago@example.org</t>
-        </is>
-      </c>
-      <c r="D1031" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="E1031" t="inlineStr">
-        <is>
-          <t>['Machine Learning', 'Swift', 'Data Visualization', 'Docker']</t>
-        </is>
-      </c>
-      <c r="F1031" t="inlineStr">
-        <is>
-          <t>02-08-2022</t>
-        </is>
-      </c>
-      <c r="G1031" t="inlineStr">
-        <is>
-          <t>North Dakota</t>
-        </is>
-      </c>
-      <c r="H1031" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1031" t="inlineStr">
-        <is>
-          <t>Training_97</t>
-        </is>
-      </c>
-      <c r="J1031" t="inlineStr">
-        <is>
-          <t>Cybersecurity Essentials</t>
-        </is>
-      </c>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>Emp_99</t>
-        </is>
-      </c>
-      <c r="L1031" t="inlineStr"/>
-      <c r="M1031" t="n">
-        <v>19</v>
-      </c>
-      <c r="N1031" t="inlineStr">
-        <is>
-          <t>in_progress</t>
-        </is>
-      </c>
-      <c r="O1031" t="n">
-        <v>75</v>
-      </c>
-      <c r="P1031" t="inlineStr"/>
-      <c r="Q1031" t="inlineStr"/>
-      <c r="R1031" t="inlineStr"/>
-      <c r="S1031" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>Emp_210</t>
-        </is>
-      </c>
-      <c r="B1032" t="inlineStr">
-        <is>
-          <t>Kaustubhhhh Gupta</t>
-        </is>
-      </c>
-      <c r="C1032" t="inlineStr">
-        <is>
-          <t>kaustubhgupta@gbtghrththjmangroup.com</t>
-        </is>
-      </c>
-      <c r="D1032" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="E1032" t="inlineStr">
-        <is>
-          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
-        </is>
-      </c>
-      <c r="F1032" t="inlineStr">
-        <is>
-          <t>2024-04-11 00:00:00</t>
-        </is>
-      </c>
-      <c r="G1032" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H1032" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
-      <c r="L1032" t="inlineStr"/>
-      <c r="M1032" t="inlineStr"/>
-      <c r="N1032" t="inlineStr"/>
-      <c r="O1032" t="inlineStr"/>
-      <c r="P1032" t="inlineStr"/>
-      <c r="Q1032" t="inlineStr"/>
-      <c r="R1032" t="inlineStr"/>
-      <c r="S1032" t="inlineStr"/>
-    </row>
-    <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>Emp_211</t>
-        </is>
-      </c>
-      <c r="B1033" t="inlineStr">
-        <is>
-          <t>Kaustubhcddc Kaustubh</t>
-        </is>
-      </c>
-      <c r="C1033" t="inlineStr">
-        <is>
-          <t>kacffvvustubhgupta@jmanefcdcddgroup.com</t>
-        </is>
-      </c>
-      <c r="D1033" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="E1033" t="inlineStr">
-        <is>
-          <t>DBT, Azure, Full Stack, NodeJs, JavaScript</t>
-        </is>
-      </c>
-      <c r="F1033" t="inlineStr">
-        <is>
-          <t>2024-04-24 00:00:00</t>
-        </is>
-      </c>
-      <c r="G1033" t="inlineStr">
-        <is>
-          <t>UK</t>
-        </is>
-      </c>
-      <c r="H1033" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
-      <c r="L1033" t="inlineStr"/>
-      <c r="M1033" t="inlineStr"/>
-      <c r="N1033" t="inlineStr"/>
-      <c r="O1033" t="inlineStr"/>
-      <c r="P1033" t="inlineStr"/>
-      <c r="Q1033" t="inlineStr"/>
-      <c r="R1033" t="inlineStr"/>
-      <c r="S1033" t="inlineStr"/>
-    </row>
-    <row r="1034">
-      <c r="A1034" t="inlineStr"/>
-      <c r="B1034" t="inlineStr"/>
-      <c r="C1034" t="inlineStr"/>
-      <c r="D1034" t="inlineStr"/>
-      <c r="E1034" t="inlineStr"/>
-      <c r="F1034" t="inlineStr"/>
-      <c r="G1034" t="inlineStr"/>
-      <c r="H1034" t="inlineStr"/>
-      <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
-      <c r="L1034" t="inlineStr"/>
-      <c r="M1034" t="inlineStr"/>
-      <c r="N1034" t="inlineStr"/>
-      <c r="O1034" t="inlineStr"/>
-      <c r="P1034" t="inlineStr"/>
-      <c r="Q1034" t="inlineStr"/>
-      <c r="R1034" t="inlineStr"/>
-      <c r="S1034" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
